--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1352708.212589289</v>
+        <v>1392984.572125382</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453903</v>
+        <v>5562152.400446147</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3505190.11917867</v>
+        <v>2921012.045488843</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7806705.014709174</v>
+        <v>8015917.885310312</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>214.5729926315861</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>302.9848884260167</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>139.71018711408</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>27.77250173713472</v>
       </c>
     </row>
     <row r="5">
@@ -902,7 +904,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>57.49473235532015</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -911,7 +913,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>73.10021653398967</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>127.2691129752737</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>42.65332303946314</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1145,7 +1147,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>68.6531862896977</v>
+        <v>362.8936521561746</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1293,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>81.56312795822622</v>
       </c>
       <c r="X10" t="n">
-        <v>138.6531680815903</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1372,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>235.168823803877</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>161.7900030326702</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y13" t="n">
-        <v>165.421695385058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1621,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>17.14311021401486</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>97.67832954876293</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>28.01490760909629</v>
       </c>
       <c r="G16" t="n">
         <v>165.577887163712</v>
@@ -1813,16 +1815,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>165.421695385058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1858,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -1901,7 +1903,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>37.78331767565417</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>80.09751710528867</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>43.44362966055525</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2095,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2144,7 +2146,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>173.5693474676043</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751809</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2299,13 +2301,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>220.9263373332085</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
-        <v>158.3449400448986</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>67.34451602363485</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>212.7297561580428</v>
       </c>
     </row>
     <row r="26">
@@ -2558,22 +2560,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>374.7552726386488</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>220.2647746254034</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>165.421695385058</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>257.7677368882639</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>385.980262130648</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>7.034559392419482</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>65.01598051309966</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3038,10 +3040,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>59.82422708687625</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -3205,7 +3207,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>142.5359303380066</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.31383608752344</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>369.6581867526364</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -3278,13 +3280,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>54.68688746169106</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.421695385058</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>49.12308702887171</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -3509,7 +3511,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>53.20093248929918</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3664,22 +3666,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>54.68688746169106</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>37.84255357379586</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>81.19664172749113</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>178.884694142054</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3794,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3803,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3898,16 +3900,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>148.006412191238</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>14.36834313439029</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3983,16 +3985,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>376.1559886079282</v>
+        <v>338.1753487462612</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4144,16 +4146,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>93.87738435325636</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>106.9706214097029</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1111.594046911441</v>
+        <v>2218.755112140477</v>
       </c>
       <c r="C2" t="n">
-        <v>701.4694562247106</v>
+        <v>1808.630521453747</v>
       </c>
       <c r="D2" t="n">
-        <v>297.0055263177711</v>
+        <v>1404.166591546807</v>
       </c>
       <c r="E2" t="n">
-        <v>80.26512972020933</v>
+        <v>989.8263760637043</v>
       </c>
       <c r="F2" t="n">
-        <v>63.27512171430095</v>
+        <v>568.7959640173918</v>
       </c>
       <c r="G2" t="n">
-        <v>58.5872416475372</v>
+        <v>160.067679910224</v>
       </c>
       <c r="H2" t="n">
-        <v>58.5872416475372</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K2" t="n">
-        <v>596.7467427565767</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L2" t="n">
-        <v>835.6969951832094</v>
+        <v>1374.97206355199</v>
       </c>
       <c r="M2" t="n">
-        <v>1560.714110571482</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="N2" t="n">
-        <v>2285.731225959755</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O2" t="n">
-        <v>2929.36208237686</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P2" t="n">
-        <v>2929.36208237686</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q2" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T2" t="n">
-        <v>2707.155598323719</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U2" t="n">
-        <v>2707.155598323719</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V2" t="n">
-        <v>2707.155598323719</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W2" t="n">
-        <v>2323.395297458887</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="X2" t="n">
-        <v>1922.75189962784</v>
+        <v>3029.912964856876</v>
       </c>
       <c r="Y2" t="n">
-        <v>1521.81522657593</v>
+        <v>2628.976291804966</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1561.703728412895</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C3" t="n">
-        <v>1427.70865716184</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D3" t="n">
-        <v>1310.811499381233</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E3" t="n">
-        <v>1190.318683373561</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F3" t="n">
-        <v>1081.358803556065</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G3" t="n">
-        <v>974.3686908704041</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H3" t="n">
-        <v>903.6214779061202</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I3" t="n">
-        <v>882.8728865263604</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J3" t="n">
-        <v>1075.685744088994</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K3" t="n">
-        <v>1531.492000354292</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L3" t="n">
-        <v>1988.252205841717</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="M3" t="n">
-        <v>1988.252205841717</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="N3" t="n">
-        <v>1988.252205841717</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="O3" t="n">
-        <v>1988.252205841717</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P3" t="n">
-        <v>2549.958098330247</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q3" t="n">
-        <v>2899.80256301423</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R3" t="n">
-        <v>2929.36208237686</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S3" t="n">
-        <v>2821.372072491169</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T3" t="n">
-        <v>2662.030208678177</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U3" t="n">
-        <v>2464.679397816396</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V3" t="n">
-        <v>2250.96787080943</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W3" t="n">
-        <v>2037.734702545758</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X3" t="n">
-        <v>1861.408720684651</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y3" t="n">
-        <v>1702.006761048481</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>842.1084300629597</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C4" t="n">
-        <v>842.1084300629597</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D4" t="n">
-        <v>700.9870289376263</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E4" t="n">
-        <v>540.0762138059458</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F4" t="n">
-        <v>375.4450879165371</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G4" t="n">
-        <v>208.1946968420806</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H4" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T4" t="n">
-        <v>1587.986138268387</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U4" t="n">
-        <v>1305.187990814512</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V4" t="n">
-        <v>1305.187990814512</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W4" t="n">
-        <v>1305.187990814512</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X4" t="n">
-        <v>1066.844128674195</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y4" t="n">
-        <v>842.1084300629597</v>
+        <v>261.4156236213415</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1761.009945622283</v>
+        <v>2443.311846829832</v>
       </c>
       <c r="C5" t="n">
-        <v>1350.885354935553</v>
+        <v>2033.187256143102</v>
       </c>
       <c r="D5" t="n">
-        <v>946.4214250286136</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="E5" t="n">
-        <v>888.3459378010175</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F5" t="n">
-        <v>467.315525754705</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G5" t="n">
-        <v>58.5872416475372</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L5" t="n">
-        <v>514.5359883879174</v>
+        <v>786.3073170395352</v>
       </c>
       <c r="M5" t="n">
-        <v>1239.55310377619</v>
+        <v>1562.625908031289</v>
       </c>
       <c r="N5" t="n">
-        <v>1964.570219164463</v>
+        <v>2315.806924669907</v>
       </c>
       <c r="O5" t="n">
-        <v>2608.201075581568</v>
+        <v>2959.437781087012</v>
       </c>
       <c r="P5" t="n">
-        <v>2608.201075581568</v>
+        <v>3488.594479006164</v>
       </c>
       <c r="Q5" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S5" t="n">
-        <v>2794.081007170961</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T5" t="n">
-        <v>2571.87452311782</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U5" t="n">
-        <v>2571.87452311782</v>
+        <v>3254.469699546231</v>
       </c>
       <c r="V5" t="n">
-        <v>2571.87452311782</v>
+        <v>3254.469699546231</v>
       </c>
       <c r="W5" t="n">
-        <v>2571.87452311782</v>
+        <v>3254.469699546231</v>
       </c>
       <c r="X5" t="n">
-        <v>2171.231125286773</v>
+        <v>3254.469699546231</v>
       </c>
       <c r="Y5" t="n">
-        <v>2171.231125286773</v>
+        <v>2853.533026494321</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>251.4000992101705</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K6" t="n">
-        <v>251.4000992101705</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4000992101705</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="M6" t="n">
-        <v>976.4172145984433</v>
+        <v>1109.505855484497</v>
       </c>
       <c r="N6" t="n">
-        <v>1701.434329986716</v>
+        <v>1983.163947596115</v>
       </c>
       <c r="O6" t="n">
-        <v>1725.672453451424</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="P6" t="n">
-        <v>1725.672453451424</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="Q6" t="n">
-        <v>2075.516918135407</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>342.1836786176676</v>
+        <v>527.81251781937</v>
       </c>
       <c r="C7" t="n">
-        <v>342.1836786176676</v>
+        <v>527.81251781937</v>
       </c>
       <c r="D7" t="n">
-        <v>342.1836786176676</v>
+        <v>527.81251781937</v>
       </c>
       <c r="E7" t="n">
-        <v>342.1836786176676</v>
+        <v>366.9017026876895</v>
       </c>
       <c r="F7" t="n">
-        <v>342.1836786176676</v>
+        <v>202.2705767982807</v>
       </c>
       <c r="G7" t="n">
-        <v>174.9332875432111</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H7" t="n">
-        <v>174.9332875432111</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S7" t="n">
-        <v>1316.321651823697</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T7" t="n">
-        <v>1076.772912800399</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U7" t="n">
-        <v>1076.772912800399</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V7" t="n">
-        <v>1076.772912800399</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W7" t="n">
-        <v>797.7032483092737</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X7" t="n">
-        <v>754.6190836229473</v>
+        <v>527.81251781937</v>
       </c>
       <c r="Y7" t="n">
-        <v>529.883385011712</v>
+        <v>527.81251781937</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1777.893042588499</v>
+        <v>2090.234309952579</v>
       </c>
       <c r="C8" t="n">
-        <v>1367.768451901769</v>
+        <v>1680.109719265849</v>
       </c>
       <c r="D8" t="n">
-        <v>963.3045219948294</v>
+        <v>1275.645789358909</v>
       </c>
       <c r="E8" t="n">
-        <v>548.9643065117261</v>
+        <v>861.3055738758062</v>
       </c>
       <c r="F8" t="n">
-        <v>127.9338944654137</v>
+        <v>440.2751618294938</v>
       </c>
       <c r="G8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K8" t="n">
-        <v>596.7467427565767</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="L8" t="n">
-        <v>1309.338142568815</v>
+        <v>621.7910469133716</v>
       </c>
       <c r="M8" t="n">
-        <v>2034.355257957088</v>
+        <v>1398.109637905126</v>
       </c>
       <c r="N8" t="n">
-        <v>2034.355257957088</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O8" t="n">
-        <v>2677.986114374193</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P8" t="n">
-        <v>2888.805436687295</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q8" t="n">
-        <v>2888.805436687295</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T8" t="n">
-        <v>2571.87452311782</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U8" t="n">
-        <v>2571.87452311782</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V8" t="n">
-        <v>2571.87452311782</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W8" t="n">
-        <v>2188.114222252988</v>
+        <v>3302.035560500025</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.114222252988</v>
+        <v>2901.392162668978</v>
       </c>
       <c r="Y8" t="n">
-        <v>2188.114222252988</v>
+        <v>2500.455489617068</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L9" t="n">
-        <v>719.6754135668255</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M9" t="n">
-        <v>719.6754135668255</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="N9" t="n">
-        <v>1401.119346952143</v>
+        <v>1790.351090033482</v>
       </c>
       <c r="O9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>555.22255510691</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C10" t="n">
-        <v>384.1291826686265</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D10" t="n">
-        <v>384.1291826686265</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E10" t="n">
-        <v>223.2183675369459</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S10" t="n">
-        <v>1401.594370148297</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T10" t="n">
-        <v>1162.045631125</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U10" t="n">
-        <v>1162.045631125</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V10" t="n">
-        <v>1162.045631125</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W10" t="n">
-        <v>882.9759666338739</v>
+        <v>724.4951843728934</v>
       </c>
       <c r="X10" t="n">
-        <v>742.9222615009544</v>
+        <v>486.1513222325768</v>
       </c>
       <c r="Y10" t="n">
-        <v>742.9222615009544</v>
+        <v>261.4156236213415</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>463.0511715544767</v>
+        <v>1125.848704289529</v>
       </c>
       <c r="C11" t="n">
-        <v>463.0511715544767</v>
+        <v>715.7241136027993</v>
       </c>
       <c r="D11" t="n">
-        <v>58.5872416475372</v>
+        <v>311.2601836958598</v>
       </c>
       <c r="E11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>221.3578507065378</v>
       </c>
       <c r="K11" t="n">
-        <v>596.7467427565767</v>
+        <v>759.5173518155773</v>
       </c>
       <c r="L11" t="n">
-        <v>1309.338142568815</v>
+        <v>1472.108751627815</v>
       </c>
       <c r="M11" t="n">
-        <v>1309.338142568815</v>
+        <v>2248.427342619569</v>
       </c>
       <c r="N11" t="n">
-        <v>2034.355257957088</v>
+        <v>3001.608359258187</v>
       </c>
       <c r="O11" t="n">
-        <v>2677.986114374193</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="P11" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>2794.081007170961</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T11" t="n">
-        <v>2571.87452311782</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U11" t="n">
-        <v>2408.450277630274</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V11" t="n">
-        <v>2058.612722966755</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W11" t="n">
-        <v>1674.852422101923</v>
+        <v>2337.649954836976</v>
       </c>
       <c r="X11" t="n">
-        <v>1274.209024270876</v>
+        <v>1937.006557005929</v>
       </c>
       <c r="Y11" t="n">
-        <v>873.2723512189662</v>
+        <v>1536.069883954019</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L12" t="n">
-        <v>58.5872416475372</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="M12" t="n">
-        <v>783.60435703581</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="N12" t="n">
-        <v>1508.621472424083</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1147.921091948674</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C13" t="n">
-        <v>976.8277195103904</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D13" t="n">
-        <v>817.3330748333003</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E13" t="n">
-        <v>656.4222597016197</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F13" t="n">
-        <v>491.791133812211</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G13" t="n">
-        <v>324.5407427377544</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H13" t="n">
-        <v>174.9332875432111</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S13" t="n">
-        <v>1502.713419943787</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T13" t="n">
-        <v>1502.713419943787</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U13" t="n">
-        <v>1502.713419943787</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V13" t="n">
-        <v>1502.713419943787</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W13" t="n">
-        <v>1502.713419943787</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X13" t="n">
-        <v>1502.713419943787</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y13" t="n">
-        <v>1335.620798342718</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1725.862662714072</v>
+        <v>2443.311846829832</v>
       </c>
       <c r="C14" t="n">
-        <v>1315.738072027342</v>
+        <v>2033.187256143102</v>
       </c>
       <c r="D14" t="n">
-        <v>911.2741421204023</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="E14" t="n">
-        <v>496.933926637299</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F14" t="n">
-        <v>75.90351459098656</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G14" t="n">
-        <v>58.5872416475372</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K14" t="n">
-        <v>596.7467427565767</v>
+        <v>270.9172995859905</v>
       </c>
       <c r="L14" t="n">
-        <v>1309.338142568815</v>
+        <v>983.5086993982285</v>
       </c>
       <c r="M14" t="n">
-        <v>1560.714110571482</v>
+        <v>1759.827290389982</v>
       </c>
       <c r="N14" t="n">
-        <v>2285.731225959755</v>
+        <v>2513.0083070286</v>
       </c>
       <c r="O14" t="n">
-        <v>2929.36208237686</v>
+        <v>3156.639163445705</v>
       </c>
       <c r="P14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T14" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U14" t="n">
-        <v>2537.020515430471</v>
+        <v>3587.130882022672</v>
       </c>
       <c r="V14" t="n">
-        <v>2537.020515430471</v>
+        <v>3237.293327359153</v>
       </c>
       <c r="W14" t="n">
-        <v>2537.020515430471</v>
+        <v>2853.533026494321</v>
       </c>
       <c r="X14" t="n">
-        <v>2537.020515430471</v>
+        <v>2853.533026494321</v>
       </c>
       <c r="Y14" t="n">
-        <v>2136.083842378561</v>
+        <v>2853.533026494321</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M15" t="n">
-        <v>783.60435703581</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="N15" t="n">
-        <v>1508.621472424083</v>
+        <v>1790.351090033482</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1147.921091948674</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="C16" t="n">
-        <v>976.8277195103904</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="D16" t="n">
-        <v>817.3330748333003</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="E16" t="n">
-        <v>656.4222597016197</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="F16" t="n">
-        <v>491.791133812211</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G16" t="n">
-        <v>324.5407427377544</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H16" t="n">
-        <v>174.9332875432111</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S16" t="n">
-        <v>1502.713419943787</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T16" t="n">
-        <v>1502.713419943787</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U16" t="n">
-        <v>1502.713419943787</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V16" t="n">
-        <v>1502.713419943787</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W16" t="n">
-        <v>1502.713419943787</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="X16" t="n">
-        <v>1502.713419943787</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="Y16" t="n">
-        <v>1335.620798342718</v>
+        <v>535.2176958658056</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K17" t="n">
         <v>885.5886702674165</v>
@@ -5540,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5595,16 +5597,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>423.0977207349383</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>423.0977207349383</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>1266.074801429505</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>2139.732893541123</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>137.1261518932039</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C19" t="n">
-        <v>137.1261518932039</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D19" t="n">
-        <v>137.1261518932039</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E19" t="n">
-        <v>137.1261518932039</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F19" t="n">
-        <v>137.1261518932039</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>137.1261518932039</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5698,25 +5700,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.429368843485</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U19" t="n">
-        <v>828.6312213896092</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V19" t="n">
-        <v>828.6312213896092</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="W19" t="n">
-        <v>549.5615568984836</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="X19" t="n">
-        <v>549.5615568984836</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="Y19" t="n">
-        <v>324.8258582872483</v>
+        <v>1263.484130926395</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E20" t="n">
-        <v>1233.910891216385</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F20" t="n">
-        <v>812.8804791700727</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G20" t="n">
         <v>404.1521950629048</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3449.320053209158</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5932,25 +5934,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R22" t="n">
-        <v>4576.912166206539</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S22" t="n">
-        <v>4390.520398086449</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T22" t="n">
-        <v>4150.971659063151</v>
+        <v>4431.619105667321</v>
       </c>
       <c r="U22" t="n">
-        <v>3868.173511609275</v>
+        <v>4148.820958213445</v>
       </c>
       <c r="V22" t="n">
-        <v>3594.287766548796</v>
+        <v>3874.935213152967</v>
       </c>
       <c r="W22" t="n">
-        <v>3371.129850050606</v>
+        <v>3595.865548661841</v>
       </c>
       <c r="X22" t="n">
-        <v>3132.785987910289</v>
+        <v>3357.521686521525</v>
       </c>
       <c r="Y22" t="n">
         <v>3132.785987910289</v>
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>920.0142945366232</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0142945366232</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D25" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6178,19 +6180,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>1383.093855288175</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>1383.093855288175</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>1383.093855288175</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.749993147859</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="Y25" t="n">
-        <v>920.0142945366232</v>
+        <v>611.5314212000407</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6208,19 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6303,19 +6305,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>2002.69172805944</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6406,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W28" t="n">
-        <v>1537.369875986873</v>
+        <v>1400.152922972682</v>
       </c>
       <c r="X28" t="n">
-        <v>1537.369875986873</v>
+        <v>1161.809060832365</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.277254385804</v>
+        <v>937.0733622211299</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6476,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V29" t="n">
-        <v>4047.636833531609</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W29" t="n">
-        <v>3663.876532666778</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X29" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C30" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D30" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E30" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F30" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G30" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H30" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I30" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>3458.672769375206</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N30" t="n">
-        <v>4332.330861486824</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O30" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P30" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q30" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R30" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S30" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T30" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U30" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V30" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W30" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X30" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y30" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>923.7296624494406</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C31" t="n">
-        <v>752.6362900111571</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>593.1416453340671</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>432.2308302023866</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>267.5997043129778</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>100.3493132385213</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
         <v>93.2436976906228</v>
@@ -6652,19 +6654,19 @@
         <v>1111.429368843485</v>
       </c>
       <c r="U31" t="n">
-        <v>1111.429368843485</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V31" t="n">
-        <v>1111.429368843485</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W31" t="n">
-        <v>1111.429368843485</v>
+        <v>489.0727687401416</v>
       </c>
       <c r="X31" t="n">
-        <v>1111.429368843485</v>
+        <v>489.0727687401416</v>
       </c>
       <c r="Y31" t="n">
-        <v>1111.429368843485</v>
+        <v>264.3370701289063</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6688,7 @@
         <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>812.8804791700727</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G32" t="n">
         <v>404.1521950629048</v>
@@ -6698,7 +6700,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K32" t="n">
         <v>885.5886702674165</v>
@@ -6786,19 +6788,19 @@
         <v>754.331869609911</v>
       </c>
       <c r="M33" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1182.57754799176</v>
+        <v>1066.231502096085</v>
       </c>
       <c r="C34" t="n">
-        <v>1011.484175553476</v>
+        <v>895.138129657802</v>
       </c>
       <c r="D34" t="n">
-        <v>851.989530876386</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6883,25 +6885,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U34" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V34" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W34" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X34" t="n">
-        <v>1436.250826191383</v>
+        <v>1478.666907101365</v>
       </c>
       <c r="Y34" t="n">
-        <v>1370.277254385804</v>
+        <v>1253.93120849013</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674165</v>
@@ -7020,13 +7022,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1182.57754799176</v>
+        <v>4011.405617385543</v>
       </c>
       <c r="C37" t="n">
-        <v>1011.484175553476</v>
+        <v>3840.31224494726</v>
       </c>
       <c r="D37" t="n">
-        <v>851.989530876386</v>
+        <v>3680.81760027017</v>
       </c>
       <c r="E37" t="n">
-        <v>691.0787157447054</v>
+        <v>3519.906785138489</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>3355.27565924908</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>3188.025268174624</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S37" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T37" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U37" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V37" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W37" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="X37" t="n">
-        <v>1537.369875986873</v>
+        <v>4423.841022390823</v>
       </c>
       <c r="Y37" t="n">
-        <v>1370.277254385804</v>
+        <v>4199.105323779588</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E38" t="n">
         <v>1233.910891216385</v>
@@ -7172,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7254,19 +7256,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.13812587521</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N39" t="n">
-        <v>1210.13812587521</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O39" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>380.6831160245802</v>
+        <v>4011.405617385543</v>
       </c>
       <c r="C40" t="n">
-        <v>209.5897435862967</v>
+        <v>3840.31224494726</v>
       </c>
       <c r="D40" t="n">
-        <v>209.5897435862967</v>
+        <v>3680.81760027017</v>
       </c>
       <c r="E40" t="n">
-        <v>209.5897435862967</v>
+        <v>3519.906785138489</v>
       </c>
       <c r="F40" t="n">
-        <v>209.5897435862967</v>
+        <v>3355.27565924908</v>
       </c>
       <c r="G40" t="n">
-        <v>209.5897435862967</v>
+        <v>3188.025268174624</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I40" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J40" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K40" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L40" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M40" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N40" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O40" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P40" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q40" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U40" t="n">
-        <v>1584.41779272178</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V40" t="n">
-        <v>1310.532047661302</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W40" t="n">
-        <v>1031.462383170177</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="X40" t="n">
-        <v>793.1185210298598</v>
+        <v>4423.841022390823</v>
       </c>
       <c r="Y40" t="n">
-        <v>568.3828224186245</v>
+        <v>4199.105323779588</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1712.810743970851</v>
+        <v>1483.336263548569</v>
       </c>
       <c r="C41" t="n">
-        <v>1302.686153284121</v>
+        <v>1073.211672861839</v>
       </c>
       <c r="D41" t="n">
-        <v>1302.686153284121</v>
+        <v>668.7477429548994</v>
       </c>
       <c r="E41" t="n">
-        <v>888.3459378010175</v>
+        <v>254.4075274717961</v>
       </c>
       <c r="F41" t="n">
-        <v>467.315525754705</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>312.7727131152915</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K41" t="n">
-        <v>850.932214224331</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L41" t="n">
-        <v>850.932214224331</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M41" t="n">
-        <v>1354.027262274144</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N41" t="n">
-        <v>2079.044377662417</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O41" t="n">
-        <v>2079.044377662417</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P41" t="n">
-        <v>2608.201075581568</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U41" t="n">
-        <v>2929.36208237686</v>
+        <v>3428.735369624367</v>
       </c>
       <c r="V41" t="n">
-        <v>2579.524527713341</v>
+        <v>3078.897814960847</v>
       </c>
       <c r="W41" t="n">
-        <v>2195.764226848509</v>
+        <v>2695.137514096016</v>
       </c>
       <c r="X41" t="n">
-        <v>2195.764226848509</v>
+        <v>2294.494116264968</v>
       </c>
       <c r="Y41" t="n">
-        <v>1794.827553796599</v>
+        <v>1893.557443213058</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M42" t="n">
-        <v>783.60435703581</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="N42" t="n">
-        <v>1508.621472424083</v>
+        <v>1790.351090033482</v>
       </c>
       <c r="O42" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>881.9675908584566</v>
+        <v>390.4677347575497</v>
       </c>
       <c r="C43" t="n">
-        <v>710.8742184201731</v>
+        <v>390.4677347575497</v>
       </c>
       <c r="D43" t="n">
-        <v>551.379573743083</v>
+        <v>390.4677347575497</v>
       </c>
       <c r="E43" t="n">
-        <v>390.4687586114026</v>
+        <v>240.9663083017537</v>
       </c>
       <c r="F43" t="n">
-        <v>225.8376327219938</v>
+        <v>240.9663083017537</v>
       </c>
       <c r="G43" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H43" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R43" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S43" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T43" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U43" t="n">
-        <v>1587.986138268387</v>
+        <v>1320.316666394272</v>
       </c>
       <c r="V43" t="n">
-        <v>1587.986138268387</v>
+        <v>1320.316666394272</v>
       </c>
       <c r="W43" t="n">
-        <v>1308.916473777262</v>
+        <v>1041.247001903146</v>
       </c>
       <c r="X43" t="n">
-        <v>1294.402995863736</v>
+        <v>802.9031397628294</v>
       </c>
       <c r="Y43" t="n">
-        <v>1069.667297252501</v>
+        <v>578.1674411515941</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1184.084259613488</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C44" t="n">
-        <v>773.9596689267587</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D44" t="n">
-        <v>369.4957390198192</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E44" t="n">
-        <v>369.4957390198192</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F44" t="n">
-        <v>369.4957390198192</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G44" t="n">
-        <v>369.4957390198192</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K44" t="n">
-        <v>58.5872416475372</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L44" t="n">
-        <v>771.1786414597752</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M44" t="n">
-        <v>991.0007669627659</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N44" t="n">
-        <v>1716.017882351039</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O44" t="n">
-        <v>2359.648738768144</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P44" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q44" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S44" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T44" t="n">
-        <v>2571.87452311782</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U44" t="n">
-        <v>2314.81403137733</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V44" t="n">
-        <v>1964.976476713811</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W44" t="n">
-        <v>1585.020932665399</v>
+        <v>3344.204600004997</v>
       </c>
       <c r="X44" t="n">
-        <v>1585.020932665399</v>
+        <v>2943.561202173949</v>
       </c>
       <c r="Y44" t="n">
-        <v>1184.084259613488</v>
+        <v>2542.624529122039</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K45" t="n">
-        <v>514.3934979128359</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L45" t="n">
-        <v>1175.481669832124</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M45" t="n">
-        <v>1725.672453451424</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="N45" t="n">
-        <v>1725.672453451424</v>
+        <v>1790.351090033482</v>
       </c>
       <c r="O45" t="n">
-        <v>1725.672453451424</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P45" t="n">
-        <v>1725.672453451424</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q45" t="n">
-        <v>2075.516918135407</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1126.400686813865</v>
+        <v>2647.895796991061</v>
       </c>
       <c r="C46" t="n">
-        <v>955.3073143755814</v>
+        <v>2476.802424552778</v>
       </c>
       <c r="D46" t="n">
-        <v>795.8126696984914</v>
+        <v>2317.307779875688</v>
       </c>
       <c r="E46" t="n">
-        <v>634.9018545668109</v>
+        <v>2156.396964744007</v>
       </c>
       <c r="F46" t="n">
-        <v>470.2707286774022</v>
+        <v>2156.396964744007</v>
       </c>
       <c r="G46" t="n">
-        <v>303.0203376029456</v>
+        <v>2156.396964744007</v>
       </c>
       <c r="H46" t="n">
-        <v>153.4128824084022</v>
+        <v>2156.396964744007</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744007</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>2170.479514149218</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>2325.031841871456</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>2584.928942151516</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>2874.192998592009</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>3155.031780986259</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>3414.592391312734</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>3620.267831562346</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R46" t="n">
-        <v>1587.986138268387</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S46" t="n">
-        <v>1587.986138268387</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T46" t="n">
-        <v>1587.986138268387</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U46" t="n">
-        <v>1587.986138268387</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V46" t="n">
-        <v>1314.100393207909</v>
+        <v>3577.744728627783</v>
       </c>
       <c r="W46" t="n">
-        <v>1314.100393207909</v>
+        <v>3298.675064136658</v>
       </c>
       <c r="X46" t="n">
-        <v>1314.100393207909</v>
+        <v>3060.331201996341</v>
       </c>
       <c r="Y46" t="n">
-        <v>1314.100393207909</v>
+        <v>2835.595503385106</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L2" t="n">
-        <v>336.8492894028778</v>
+        <v>609.5370887172882</v>
       </c>
       <c r="M2" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N2" t="n">
-        <v>825.2528113508343</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,16 +8057,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>517.4884687476412</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>536.2013208684158</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
@@ -8079,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8219,25 +8221,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>556.0396876995925</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>248.2608111356456</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8301,19 +8303,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N6" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O6" t="n">
-        <v>82.2344319946543</v>
+        <v>166.3187983121741</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>815.2746908024792</v>
+        <v>392.3436386874106</v>
       </c>
       <c r="M8" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>306.5981736981594</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8535,16 +8537,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>741.5205988334645</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>222.456857473955</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8696,22 +8698,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>347.5644824754977</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,16 +8774,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>789.9048043326325</v>
+        <v>745.8914891781321</v>
       </c>
       <c r="N12" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>660.231241700964</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8927,22 +8929,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>632.7318453389136</v>
+        <v>288.3297051870488</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>347.2053436516589</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
         <v>90.03380439915205</v>
@@ -9012,13 +9014,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>660.231241700964</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9243,7 +9245,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>389.0116646475603</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
@@ -9255,7 +9257,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9422,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>55.82578278461539</v>
@@ -9966,7 +9968,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>196.176898678467</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10197,13 +10199,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629454</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10434,22 +10436,22 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>506.3432205021228</v>
       </c>
       <c r="N33" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,7 +10606,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10668,16 +10670,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M36" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10902,22 +10904,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>429.3564034215989</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>601.4670406689773</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507341</v>
+        <v>283.7489381988688</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
         <v>87.31214281472352</v>
@@ -11145,13 +11147,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>660.231241700964</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11297,28 +11299,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>315.3327754701673</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507341</v>
+        <v>283.7489381988688</v>
       </c>
       <c r="Q44" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,28 +11378,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>613.3125500205382</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>175.0279895243952</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>92.69988379041476</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y13" t="n">
-        <v>57.06664624006493</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>387.4978910520812</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>156.8115572743221</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>134.9699070214184</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
@@ -23719,7 +23721,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.06664624006493</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>308.5558614412299</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>105.7251922248153</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>104.6677509820427</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23981,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24032,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>223.0676163851327</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>8.893130557884007</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>55.35263051300589</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
-        <v>187.9942390719855</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>90.55518220668422</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>9.758585467080167</v>
       </c>
     </row>
     <row r="26">
@@ -24446,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>25.66401796922128</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
@@ -24661,13 +24663,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>56.01419322081091</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.06664624006493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>88.57144222862024</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>10.656701722089</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>141.0768212501784</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24892,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>211.2629873331147</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24926,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -25138,10 +25140,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>93.42449318090684</v>
       </c>
       <c r="Y34" t="n">
-        <v>157.1745055375995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>36.46078111520819</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>93.42449318090684</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -25375,10 +25377,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.06664624006493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>356.9958808389729</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25397,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>93.42449318090684</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>242.1276124055412</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>324.9223261403534</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>237.9354137837953</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -25682,7 +25684,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>11.29529478912571</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>221.5920803845231</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>3.766709248254926</v>
+        <v>41.74734910992191</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>21.30520108346074</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>164.1762662001703</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>776861.0071718291</v>
+        <v>778351.105308983</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>776861.0071718291</v>
+        <v>778351.105308983</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>776861.0071718291</v>
+        <v>778351.105308983</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>534746.9252584893</v>
+        <v>604877.9470541982</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>534746.9252584896</v>
+        <v>604877.9470541984</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>695401.6145143893</v>
+        <v>695401.6145143894</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>695401.6145143893</v>
+        <v>695401.6145143894</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>695401.6145143893</v>
+        <v>695401.6145143895</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>695401.6145143893</v>
+        <v>695401.6145143895</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>695401.6145143892</v>
+        <v>695401.6145143893</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>695401.6145143895</v>
+        <v>695401.6145143893</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>534746.9252584893</v>
+        <v>604877.9470541982</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>534746.9252584893</v>
+        <v>604877.9470541984</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>374629.503974651</v>
       </c>
       <c r="C2" t="n">
-        <v>374629.503974651</v>
+        <v>374629.5039746509</v>
       </c>
       <c r="D2" t="n">
         <v>374629.503974651</v>
       </c>
       <c r="E2" t="n">
-        <v>256148.1447404637</v>
+        <v>289738.3839776287</v>
       </c>
       <c r="F2" t="n">
-        <v>256148.1447404637</v>
+        <v>289738.3839776288</v>
       </c>
       <c r="G2" t="n">
+        <v>333095.9676653581</v>
+      </c>
+      <c r="H2" t="n">
+        <v>333095.9676653581</v>
+      </c>
+      <c r="I2" t="n">
         <v>333095.967665358</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>333095.967665358</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>333095.9676653581</v>
       </c>
-      <c r="J2" t="n">
-        <v>333095.9676653582</v>
-      </c>
-      <c r="K2" t="n">
-        <v>333095.9676653582</v>
-      </c>
       <c r="L2" t="n">
-        <v>333095.9676653582</v>
+        <v>333095.967665358</v>
       </c>
       <c r="M2" t="n">
         <v>333095.9676653581</v>
       </c>
       <c r="N2" t="n">
-        <v>333095.9676653582</v>
+        <v>333095.9676653579</v>
       </c>
       <c r="O2" t="n">
-        <v>256148.1447404636</v>
+        <v>289738.3839776286</v>
       </c>
       <c r="P2" t="n">
-        <v>256148.1447404637</v>
+        <v>289738.3839776287</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>308798.7416120438</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>66903.39635363268</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>241091.5930877367</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129456.2246430208</v>
+        <v>97692.76759530428</v>
       </c>
       <c r="C4" t="n">
-        <v>129456.2246430208</v>
+        <v>97692.76759530428</v>
       </c>
       <c r="D4" t="n">
-        <v>129456.2246430208</v>
+        <v>97692.76759530426</v>
       </c>
       <c r="E4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="F4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="G4" t="n">
         <v>15465.37373706398</v>
@@ -26454,10 +26456,10 @@
         <v>15465.37373706398</v>
       </c>
       <c r="O4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="P4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155123</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274582</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274582</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78404.77660359319</v>
+        <v>-121513.7023254429</v>
       </c>
       <c r="C6" t="n">
-        <v>167019.3756795019</v>
+        <v>187285.0392866008</v>
       </c>
       <c r="D6" t="n">
-        <v>167019.3756795019</v>
+        <v>187285.039286601</v>
       </c>
       <c r="E6" t="n">
-        <v>199774.7623921674</v>
+        <v>220287.7041633316</v>
       </c>
       <c r="F6" t="n">
-        <v>199774.7623921674</v>
+        <v>220287.7041633317</v>
       </c>
       <c r="G6" t="n">
-        <v>128030.1992513067</v>
+        <v>179861.9873297881</v>
       </c>
       <c r="H6" t="n">
         <v>246765.3836834208</v>
@@ -26543,25 +26545,25 @@
         <v>246765.3836834208</v>
       </c>
       <c r="J6" t="n">
-        <v>55152.88051306804</v>
+        <v>5673.790595684084</v>
       </c>
       <c r="K6" t="n">
-        <v>246765.3836834209</v>
+        <v>246765.3836834208</v>
       </c>
       <c r="L6" t="n">
-        <v>246765.3836834209</v>
+        <v>246765.3836834208</v>
       </c>
       <c r="M6" t="n">
         <v>246765.3836834208</v>
       </c>
       <c r="N6" t="n">
-        <v>246765.3836834209</v>
+        <v>246765.3836834207</v>
       </c>
       <c r="O6" t="n">
-        <v>199774.7623921673</v>
+        <v>220287.7041633315</v>
       </c>
       <c r="P6" t="n">
-        <v>199774.7623921674</v>
+        <v>220287.7041633316</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412141</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412141</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>195.6238206966861</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>93.65207542672033</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>18.18951111623906</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -27588,22 +27590,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>194.7158398879882</v>
       </c>
     </row>
     <row r="5">
@@ -27622,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>352.7020809729521</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -27670,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>181.3896702890953</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -27679,10 +27681,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -27780,19 +27782,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>38.30877418843828</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>193.3071004794503</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27865,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>335.9878149763984</v>
+        <v>41.74734910992152</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
@@ -28059,25 +28061,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>194.7158398879881</v>
       </c>
       <c r="X10" t="n">
-        <v>97.30725543732314</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L2" t="n">
-        <v>241.363891340033</v>
+        <v>514.0516906544433</v>
       </c>
       <c r="M2" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N2" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3739449367921</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34799,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34939,25 +34941,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>460.5542896367477</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>158.2270067364936</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35021,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N6" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O6" t="n">
-        <v>24.48295299465431</v>
+        <v>108.5673193121741</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>719.7892927396343</v>
+        <v>296.8582406245658</v>
       </c>
       <c r="M8" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>212.9488104172752</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35255,16 +35257,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>688.3272054397146</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>149.1332661406471</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35416,22 +35418,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>253.9151191946135</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>732.340520594215</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="N12" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>602.479762700964</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>543.5954556656965</v>
+        <v>199.1933155138316</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>253.9151191946135</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>602.479762700964</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,7 +35977,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36686,7 +36688,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>138.425419678467</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629454</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>448.7789367637054</v>
       </c>
       <c r="N33" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>371.6049244215989</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>508.1768162119319</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>534.50171506985</v>
+        <v>190.0995749179847</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>602.479762700964</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>222.0425510131218</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>534.50171506985</v>
+        <v>190.0995749179847</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>555.7482662821208</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1392984.572125382</v>
+        <v>1391485.884816251</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5562152.400446147</v>
+        <v>5562152.400446149</v>
       </c>
     </row>
     <row r="8">
@@ -670,16 +670,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>300.5984527802327</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>302.9848884260167</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>136.1769805884549</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -876,16 +876,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.77250173713472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -916,7 +916,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>73.10021653398967</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>350.0338101888075</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -1068,13 +1068,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>127.2691129752737</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>362.8936521561746</v>
+        <v>122.6636574936579</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751807</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1353,7 +1353,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>81.56312795822622</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -1378,19 +1378,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>235.168823803877</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>160.3235064482872</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="14">
@@ -1618,13 +1618,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>375.0727588159278</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>97.67832954876293</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>28.01490760909629</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1827,13 +1827,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>37.78331767565417</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -1912,7 +1912,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>294.4213123055028</v>
       </c>
     </row>
     <row r="18">
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80.09751710528867</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -2052,19 +2052,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>21.58796848153985</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>257.7677368882639</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>228.2601210751809</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>369.6581867526364</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2338,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>212.7297561580428</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2560,13 +2560,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>374.7552726386488</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
@@ -2608,10 +2608,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>220.2647746254034</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V29" t="n">
-        <v>257.7677368882639</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>50.93776964167968</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -3012,13 +3012,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>65.01598051309966</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3189,25 +3189,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>78.29050382943421</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>142.5359303380066</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>369.6581867526364</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -3319,13 +3319,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>20.68378134312494</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>54.68688746169106</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>53.20093248929918</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3523,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3571,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>300.7823595432042</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>54.68688746169106</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>109.4349500296154</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>128.6486531465636</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -3748,16 +3748,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>178.884694142054</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>148.006412191238</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>281.0777313018688</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3991,13 +3991,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>338.1753487462612</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>106.9706214097029</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2218.755112140477</v>
+        <v>1610.967334158948</v>
       </c>
       <c r="C2" t="n">
-        <v>1808.630521453747</v>
+        <v>1200.842743472218</v>
       </c>
       <c r="D2" t="n">
-        <v>1404.166591546807</v>
+        <v>796.3788135652781</v>
       </c>
       <c r="E2" t="n">
-        <v>989.8263760637043</v>
+        <v>382.0385980821748</v>
       </c>
       <c r="F2" t="n">
-        <v>568.7959640173918</v>
+        <v>78.40379729406089</v>
       </c>
       <c r="G2" t="n">
-        <v>160.067679910224</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H2" t="n">
-        <v>160.067679910224</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I2" t="n">
         <v>73.71591722729714</v>
@@ -4333,13 +4333,13 @@
         <v>327.9013886950514</v>
       </c>
       <c r="K2" t="n">
-        <v>866.0608898040909</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="L2" t="n">
-        <v>1374.97206355199</v>
+        <v>621.7910469133716</v>
       </c>
       <c r="M2" t="n">
-        <v>2151.290654543744</v>
+        <v>1398.109637905126</v>
       </c>
       <c r="N2" t="n">
         <v>2151.290654543744</v>
@@ -4360,22 +4360,22 @@
         <v>3685.795861364857</v>
       </c>
       <c r="T2" t="n">
-        <v>3685.795861364857</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U2" t="n">
-        <v>3685.795861364857</v>
+        <v>3206.528885571226</v>
       </c>
       <c r="V2" t="n">
-        <v>3335.958306701338</v>
+        <v>3206.528885571226</v>
       </c>
       <c r="W2" t="n">
-        <v>3335.958306701338</v>
+        <v>2822.768584706394</v>
       </c>
       <c r="X2" t="n">
-        <v>3029.912964856876</v>
+        <v>2422.125186875347</v>
       </c>
       <c r="Y2" t="n">
-        <v>2628.976291804966</v>
+        <v>2021.188513823437</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J3" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K3" t="n">
-        <v>73.71591722729714</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L3" t="n">
-        <v>734.8040891465854</v>
+        <v>1383.423202974517</v>
       </c>
       <c r="M3" t="n">
-        <v>1208.654755905284</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="N3" t="n">
-        <v>1208.654755905284</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="O3" t="n">
-        <v>1208.654755905284</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="P3" t="n">
-        <v>1770.360648393814</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="Q3" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R3" t="n">
         <v>2120.205113077797</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73.71591722729714</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="C4" t="n">
-        <v>73.71591722729714</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="D4" t="n">
-        <v>73.71591722729714</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="E4" t="n">
-        <v>73.71591722729714</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F4" t="n">
-        <v>73.71591722729714</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G4" t="n">
-        <v>73.71591722729714</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H4" t="n">
-        <v>73.71591722729714</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I4" t="n">
         <v>73.71591722729714</v>
@@ -4512,28 +4512,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R4" t="n">
-        <v>1603.114813848147</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S4" t="n">
-        <v>1603.114813848147</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T4" t="n">
-        <v>1363.566074824849</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U4" t="n">
-        <v>1080.767927370974</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V4" t="n">
-        <v>806.8821823104956</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="W4" t="n">
-        <v>527.81251781937</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="X4" t="n">
-        <v>289.4686556790534</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="Y4" t="n">
-        <v>261.4156236213415</v>
+        <v>809.1034409262836</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2443.311846829832</v>
+        <v>2529.663609512759</v>
       </c>
       <c r="C5" t="n">
-        <v>2033.187256143102</v>
+        <v>2119.539018826029</v>
       </c>
       <c r="D5" t="n">
-        <v>1628.723326236163</v>
+        <v>1715.075088919089</v>
       </c>
       <c r="E5" t="n">
-        <v>1214.38311075306</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="F5" t="n">
-        <v>793.352698706747</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G5" t="n">
-        <v>384.6244145995792</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H5" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I5" t="n">
         <v>73.71591722729714</v>
@@ -4570,25 +4570,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="K5" t="n">
-        <v>73.71591722729714</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L5" t="n">
-        <v>786.3073170395352</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M5" t="n">
-        <v>1562.625908031289</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N5" t="n">
-        <v>2315.806924669907</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O5" t="n">
-        <v>2959.437781087012</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P5" t="n">
-        <v>3488.594479006164</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q5" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R5" t="n">
         <v>3685.795861364857</v>
@@ -4597,22 +4597,22 @@
         <v>3550.514786158958</v>
       </c>
       <c r="T5" t="n">
-        <v>3328.308302105817</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U5" t="n">
-        <v>3254.469699546231</v>
+        <v>3293.454294418468</v>
       </c>
       <c r="V5" t="n">
-        <v>3254.469699546231</v>
+        <v>3293.454294418468</v>
       </c>
       <c r="W5" t="n">
-        <v>3254.469699546231</v>
+        <v>2939.884789177248</v>
       </c>
       <c r="X5" t="n">
-        <v>3254.469699546231</v>
+        <v>2939.884789177248</v>
       </c>
       <c r="Y5" t="n">
-        <v>2853.533026494321</v>
+        <v>2939.884789177248</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>266.5287747899304</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K6" t="n">
-        <v>266.5287747899304</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L6" t="n">
-        <v>266.5287747899304</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="M6" t="n">
-        <v>1109.505855484497</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="N6" t="n">
-        <v>1983.163947596115</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="O6" t="n">
-        <v>2090.645593715167</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="P6" t="n">
-        <v>2090.645593715167</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q6" t="n">
-        <v>2090.645593715167</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R6" t="n">
         <v>2120.205113077797</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>527.81251781937</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C7" t="n">
-        <v>527.81251781937</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D7" t="n">
-        <v>527.81251781937</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E7" t="n">
-        <v>366.9017026876895</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F7" t="n">
-        <v>202.2705767982807</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G7" t="n">
-        <v>73.71591722729714</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H7" t="n">
-        <v>73.71591722729714</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I7" t="n">
         <v>73.71591722729714</v>
@@ -4755,22 +4755,22 @@
         <v>1603.114813848147</v>
       </c>
       <c r="T7" t="n">
-        <v>1363.566074824849</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U7" t="n">
-        <v>1080.767927370974</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V7" t="n">
-        <v>806.8821823104956</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W7" t="n">
-        <v>527.81251781937</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="X7" t="n">
-        <v>527.81251781937</v>
+        <v>1575.485172533713</v>
       </c>
       <c r="Y7" t="n">
-        <v>527.81251781937</v>
+        <v>1350.749473922478</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2090.234309952579</v>
+        <v>1125.848704289529</v>
       </c>
       <c r="C8" t="n">
-        <v>1680.109719265849</v>
+        <v>715.7241136027993</v>
       </c>
       <c r="D8" t="n">
-        <v>1275.645789358909</v>
+        <v>311.2601836958598</v>
       </c>
       <c r="E8" t="n">
-        <v>861.3055738758062</v>
+        <v>300.9603722531606</v>
       </c>
       <c r="F8" t="n">
-        <v>440.2751618294938</v>
+        <v>283.9703642472522</v>
       </c>
       <c r="G8" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="H8" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I8" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>327.9013886950514</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K8" t="n">
-        <v>327.9013886950514</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L8" t="n">
-        <v>621.7910469133716</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M8" t="n">
-        <v>1398.109637905126</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N8" t="n">
-        <v>2151.290654543744</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O8" t="n">
-        <v>2794.921510960849</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P8" t="n">
-        <v>3324.07820888</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q8" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R8" t="n">
         <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T8" t="n">
-        <v>3685.795861364857</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U8" t="n">
-        <v>3685.795861364857</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V8" t="n">
-        <v>3685.795861364857</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W8" t="n">
-        <v>3302.035560500025</v>
+        <v>2337.649954836976</v>
       </c>
       <c r="X8" t="n">
-        <v>2901.392162668978</v>
+        <v>1937.006557005929</v>
       </c>
       <c r="Y8" t="n">
-        <v>2500.455489617068</v>
+        <v>1536.069883954019</v>
       </c>
     </row>
     <row r="9">
@@ -4892,19 +4892,19 @@
         <v>73.71591722729714</v>
       </c>
       <c r="M9" t="n">
-        <v>916.6929979218638</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="N9" t="n">
-        <v>1790.351090033482</v>
+        <v>475.1381459967595</v>
       </c>
       <c r="O9" t="n">
-        <v>2120.205113077797</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P9" t="n">
-        <v>2120.205113077797</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q9" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R9" t="n">
         <v>2120.205113077797</v>
@@ -4992,22 +4992,22 @@
         <v>1603.114813848147</v>
       </c>
       <c r="T10" t="n">
-        <v>1363.566074824849</v>
+        <v>1372.549034984329</v>
       </c>
       <c r="U10" t="n">
-        <v>1080.767927370974</v>
+        <v>1089.750887530453</v>
       </c>
       <c r="V10" t="n">
-        <v>806.8821823104956</v>
+        <v>815.8651424699747</v>
       </c>
       <c r="W10" t="n">
-        <v>724.4951843728934</v>
+        <v>536.795477978849</v>
       </c>
       <c r="X10" t="n">
-        <v>486.1513222325768</v>
+        <v>298.4516158385325</v>
       </c>
       <c r="Y10" t="n">
-        <v>261.4156236213415</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1125.848704289529</v>
+        <v>2115.323394029655</v>
       </c>
       <c r="C11" t="n">
-        <v>715.7241136027993</v>
+        <v>1705.198803342926</v>
       </c>
       <c r="D11" t="n">
-        <v>311.2601836958598</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="E11" t="n">
-        <v>73.71591722729714</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="F11" t="n">
-        <v>73.71591722729714</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G11" t="n">
-        <v>73.71591722729714</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H11" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I11" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>221.3578507065378</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K11" t="n">
-        <v>759.5173518155773</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L11" t="n">
-        <v>1472.108751627815</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M11" t="n">
-        <v>2248.427342619569</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N11" t="n">
-        <v>3001.608359258187</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="O11" t="n">
-        <v>3645.239215675292</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P11" t="n">
-        <v>3645.239215675292</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q11" t="n">
         <v>3645.239215675292</v>
@@ -5077,16 +5077,16 @@
         <v>3071.247810365327</v>
       </c>
       <c r="V11" t="n">
-        <v>2721.410255701808</v>
+        <v>2909.304874558976</v>
       </c>
       <c r="W11" t="n">
-        <v>2337.649954836976</v>
+        <v>2525.544573694145</v>
       </c>
       <c r="X11" t="n">
-        <v>1937.006557005929</v>
+        <v>2525.544573694145</v>
       </c>
       <c r="Y11" t="n">
-        <v>1536.069883954019</v>
+        <v>2525.544573694145</v>
       </c>
     </row>
     <row r="12">
@@ -5129,13 +5129,13 @@
         <v>734.8040891465854</v>
       </c>
       <c r="M12" t="n">
-        <v>1416.248022531903</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="N12" t="n">
-        <v>1416.248022531903</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="O12" t="n">
-        <v>2120.205113077797</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="P12" t="n">
         <v>2120.205113077797</v>
@@ -5223,25 +5223,25 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S13" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T13" t="n">
-        <v>1091.901588380159</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U13" t="n">
-        <v>809.1034409262836</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V13" t="n">
-        <v>535.2176958658056</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W13" t="n">
-        <v>256.1480313746799</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X13" t="n">
-        <v>73.71591722729714</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y13" t="n">
         <v>73.71591722729714</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2443.311846829832</v>
+        <v>2090.234309952579</v>
       </c>
       <c r="C14" t="n">
-        <v>2033.187256143102</v>
+        <v>1680.109719265849</v>
       </c>
       <c r="D14" t="n">
-        <v>1628.723326236163</v>
+        <v>1275.645789358909</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.38311075306</v>
+        <v>861.3055738758062</v>
       </c>
       <c r="F14" t="n">
-        <v>793.352698706747</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G14" t="n">
-        <v>384.6244145995792</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H14" t="n">
         <v>73.71591722729714</v>
@@ -5281,22 +5281,22 @@
         <v>73.71591722729714</v>
       </c>
       <c r="K14" t="n">
-        <v>270.9172995859905</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L14" t="n">
-        <v>983.5086993982285</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M14" t="n">
-        <v>1759.827290389982</v>
+        <v>1438.66628359469</v>
       </c>
       <c r="N14" t="n">
-        <v>2513.0083070286</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="O14" t="n">
-        <v>3156.639163445705</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P14" t="n">
-        <v>3685.795861364857</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q14" t="n">
         <v>3685.795861364857</v>
@@ -5311,19 +5311,19 @@
         <v>3685.795861364857</v>
       </c>
       <c r="U14" t="n">
-        <v>3587.130882022672</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V14" t="n">
-        <v>3237.293327359153</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W14" t="n">
-        <v>2853.533026494321</v>
+        <v>3302.035560500025</v>
       </c>
       <c r="X14" t="n">
-        <v>2853.533026494321</v>
+        <v>2901.392162668978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2853.533026494321</v>
+        <v>2500.455489617068</v>
       </c>
     </row>
     <row r="15">
@@ -5357,19 +5357,19 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J15" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K15" t="n">
-        <v>73.71591722729714</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L15" t="n">
-        <v>73.71591722729714</v>
+        <v>1383.423202974517</v>
       </c>
       <c r="M15" t="n">
-        <v>916.6929979218638</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="N15" t="n">
-        <v>1790.351090033482</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="O15" t="n">
         <v>2120.205113077797</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>535.2176958658056</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C16" t="n">
-        <v>535.2176958658056</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D16" t="n">
-        <v>535.2176958658056</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E16" t="n">
-        <v>535.2176958658056</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F16" t="n">
-        <v>506.9198093919709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G16" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H16" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I16" t="n">
         <v>73.71591722729714</v>
@@ -5460,28 +5460,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S16" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T16" t="n">
-        <v>1091.901588380159</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U16" t="n">
-        <v>809.1034409262836</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V16" t="n">
-        <v>535.2176958658056</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W16" t="n">
-        <v>535.2176958658056</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X16" t="n">
-        <v>535.2176958658056</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y16" t="n">
-        <v>535.2176958658056</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
         <v>885.5886702674165</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4182.917908737509</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V17" t="n">
-        <v>4144.752941388363</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1182.57754799176</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="C19" t="n">
-        <v>1011.484175553476</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F19" t="n">
         <v>526.4475898552967</v>
@@ -5700,25 +5700,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.369875986873</v>
+        <v>1515.56384721764</v>
       </c>
       <c r="T19" t="n">
-        <v>1537.369875986873</v>
+        <v>1276.015108194342</v>
       </c>
       <c r="U19" t="n">
-        <v>1537.369875986873</v>
+        <v>993.2169607404667</v>
       </c>
       <c r="V19" t="n">
-        <v>1263.484130926395</v>
+        <v>993.2169607404667</v>
       </c>
       <c r="W19" t="n">
-        <v>1263.484130926395</v>
+        <v>714.147296249341</v>
       </c>
       <c r="X19" t="n">
-        <v>1263.484130926395</v>
+        <v>714.147296249341</v>
       </c>
       <c r="Y19" t="n">
-        <v>1263.484130926395</v>
+        <v>714.147296249341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5840,10 +5840,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4431.619105667321</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>4148.820958213445</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>3874.935213152967</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>3595.865548661841</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>3357.521686521525</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2462.839627293158</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C23" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D23" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E23" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>423.8317148059963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
         <v>93.2436976906228</v>
@@ -6186,13 +6186,13 @@
         <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>826.4099627738212</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>826.4099627738212</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>611.5314212000407</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1313.572457336103</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>899.2322418529996</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
         <v>899.2322418529996</v>
@@ -6256,22 +6256,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>1129.033635947823</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>2002.69172805944</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>749.3736558270855</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>578.280283388802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>418.7856387117121</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
         <v>93.2436976906228</v>
@@ -6414,22 +6414,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>1400.152922972682</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>1161.809060832365</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>937.0733622211299</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6478,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6496,7 +6496,7 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4405.12439279065</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V29" t="n">
         <v>4144.752941388363</v>
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>264.3370701289063</v>
+        <v>639.9151332627582</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>468.8217608244747</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>309.3271161473847</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>309.3271161473847</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>144.695990257976</v>
       </c>
       <c r="G31" t="n">
         <v>93.2436976906228</v>
@@ -6645,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>828.6312213896092</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V31" t="n">
-        <v>554.7454763291312</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W31" t="n">
-        <v>489.0727687401416</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="X31" t="n">
-        <v>489.0727687401416</v>
+        <v>827.6148396568026</v>
       </c>
       <c r="Y31" t="n">
-        <v>264.3370701289063</v>
+        <v>827.6148396568026</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
         <v>885.5886702674165</v>
@@ -6730,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6785,13 +6785,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.623017005979</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N33" t="n">
-        <v>1198.623017005979</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O33" t="n">
         <v>1198.623017005979</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1066.231502096085</v>
+        <v>520.1080139125206</v>
       </c>
       <c r="C34" t="n">
-        <v>895.138129657802</v>
+        <v>520.1080139125206</v>
       </c>
       <c r="D34" t="n">
-        <v>735.6434849807119</v>
+        <v>520.1080139125206</v>
       </c>
       <c r="E34" t="n">
-        <v>574.7326698490315</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F34" t="n">
-        <v>410.1015439596227</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G34" t="n">
-        <v>242.8511528851661</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6885,25 +6885,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>1543.561277312044</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1543.561277312044</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>1260.763129858169</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.642594311473</v>
+        <v>986.8773847976906</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.642594311473</v>
+        <v>707.807720306565</v>
       </c>
       <c r="X34" t="n">
-        <v>1478.666907101365</v>
+        <v>707.807720306565</v>
       </c>
       <c r="Y34" t="n">
-        <v>1253.93120849013</v>
+        <v>707.807720306565</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2139.066799289355</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
         <v>2139.066799289355</v>
@@ -6937,7 +6937,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674165</v>
@@ -6967,22 +6967,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7022,19 +7022,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>423.0977207349383</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>1266.074801429505</v>
+        <v>354.5244442569915</v>
       </c>
       <c r="N36" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4011.405617385543</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="C37" t="n">
-        <v>3840.31224494726</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="D37" t="n">
-        <v>3680.81760027017</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="E37" t="n">
-        <v>3519.906785138489</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F37" t="n">
-        <v>3355.27565924908</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G37" t="n">
-        <v>3188.025268174624</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>4662.18488453114</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>4662.18488453114</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>4423.841022390823</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="Y37" t="n">
-        <v>4199.105323779588</v>
+        <v>547.3402982826956</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7210,16 +7210,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4011.405617385543</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="C40" t="n">
-        <v>3840.31224494726</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D40" t="n">
-        <v>3680.81760027017</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E40" t="n">
-        <v>3519.906785138489</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F40" t="n">
-        <v>3355.27565924908</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G40" t="n">
-        <v>3188.025268174624</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H40" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>4662.18488453114</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U40" t="n">
-        <v>4662.18488453114</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V40" t="n">
-        <v>4662.18488453114</v>
+        <v>837.543623783007</v>
       </c>
       <c r="W40" t="n">
-        <v>4662.18488453114</v>
+        <v>558.4739592918813</v>
       </c>
       <c r="X40" t="n">
-        <v>4423.841022390823</v>
+        <v>320.1300971515647</v>
       </c>
       <c r="Y40" t="n">
-        <v>4199.105323779588</v>
+        <v>209.5897435862967</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1483.336263548569</v>
+        <v>2028.971631346729</v>
       </c>
       <c r="C41" t="n">
-        <v>1073.211672861839</v>
+        <v>1618.847040659999</v>
       </c>
       <c r="D41" t="n">
-        <v>668.7477429548994</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="E41" t="n">
-        <v>254.4075274717961</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F41" t="n">
-        <v>73.71591722729714</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G41" t="n">
-        <v>73.71591722729714</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H41" t="n">
         <v>73.71591722729714</v>
@@ -7411,52 +7411,52 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K41" t="n">
-        <v>611.8754183363367</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L41" t="n">
-        <v>1324.466818148575</v>
+        <v>1398.109637905126</v>
       </c>
       <c r="M41" t="n">
-        <v>2100.785409140329</v>
+        <v>1398.109637905126</v>
       </c>
       <c r="N41" t="n">
-        <v>2853.966425778947</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O41" t="n">
-        <v>3497.597282196052</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P41" t="n">
-        <v>3685.795861364857</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q41" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R41" t="n">
         <v>3685.795861364857</v>
       </c>
       <c r="S41" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T41" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U41" t="n">
-        <v>3428.735369624367</v>
+        <v>3293.454294418468</v>
       </c>
       <c r="V41" t="n">
-        <v>3078.897814960847</v>
+        <v>2943.616739754949</v>
       </c>
       <c r="W41" t="n">
-        <v>2695.137514096016</v>
+        <v>2559.856438890117</v>
       </c>
       <c r="X41" t="n">
-        <v>2294.494116264968</v>
+        <v>2559.856438890117</v>
       </c>
       <c r="Y41" t="n">
-        <v>1893.557443213058</v>
+        <v>2158.919765838207</v>
       </c>
     </row>
     <row r="42">
@@ -7499,19 +7499,19 @@
         <v>73.71591722729714</v>
       </c>
       <c r="M42" t="n">
-        <v>916.6929979218638</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="N42" t="n">
-        <v>1790.351090033482</v>
+        <v>475.1381459967595</v>
       </c>
       <c r="O42" t="n">
-        <v>2120.205113077797</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P42" t="n">
-        <v>2120.205113077797</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q42" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R42" t="n">
         <v>2120.205113077797</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>390.4677347575497</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C43" t="n">
-        <v>390.4677347575497</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D43" t="n">
-        <v>390.4677347575497</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E43" t="n">
-        <v>240.9663083017537</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F43" t="n">
-        <v>240.9663083017537</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G43" t="n">
         <v>73.71591722729714</v>
@@ -7599,22 +7599,22 @@
         <v>1603.114813848147</v>
       </c>
       <c r="T43" t="n">
-        <v>1603.114813848147</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U43" t="n">
-        <v>1320.316666394272</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V43" t="n">
-        <v>1320.316666394272</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W43" t="n">
-        <v>1041.247001903146</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X43" t="n">
-        <v>802.9031397628294</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y43" t="n">
-        <v>578.1674411515941</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2132.40334945755</v>
+        <v>1994.727635023779</v>
       </c>
       <c r="C44" t="n">
-        <v>1722.27875877082</v>
+        <v>1710.810734718861</v>
       </c>
       <c r="D44" t="n">
-        <v>1317.814828863881</v>
+        <v>1306.346804811922</v>
       </c>
       <c r="E44" t="n">
-        <v>903.4746133807774</v>
+        <v>892.0065893288184</v>
       </c>
       <c r="F44" t="n">
-        <v>482.444201334465</v>
+        <v>470.976177282506</v>
       </c>
       <c r="G44" t="n">
-        <v>73.71591722729714</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H44" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I44" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K44" t="n">
-        <v>611.8754183363367</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L44" t="n">
-        <v>1324.466818148575</v>
+        <v>1398.109637905126</v>
       </c>
       <c r="M44" t="n">
-        <v>2100.785409140329</v>
+        <v>1398.109637905126</v>
       </c>
       <c r="N44" t="n">
-        <v>2853.966425778947</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O44" t="n">
-        <v>3497.597282196052</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P44" t="n">
-        <v>3685.795861364857</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q44" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R44" t="n">
         <v>3685.795861364857</v>
@@ -7678,22 +7678,22 @@
         <v>3685.795861364857</v>
       </c>
       <c r="T44" t="n">
-        <v>3685.795861364857</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U44" t="n">
-        <v>3685.795861364857</v>
+        <v>3206.528885571226</v>
       </c>
       <c r="V44" t="n">
-        <v>3685.795861364857</v>
+        <v>3206.528885571226</v>
       </c>
       <c r="W44" t="n">
-        <v>3344.204600004997</v>
+        <v>3206.528885571226</v>
       </c>
       <c r="X44" t="n">
-        <v>2943.561202173949</v>
+        <v>2805.885487740179</v>
       </c>
       <c r="Y44" t="n">
-        <v>2542.624529122039</v>
+        <v>2404.948814688269</v>
       </c>
     </row>
     <row r="45">
@@ -7736,19 +7736,19 @@
         <v>73.71591722729714</v>
       </c>
       <c r="M45" t="n">
-        <v>916.6929979218638</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="N45" t="n">
-        <v>1790.351090033482</v>
+        <v>475.1381459967595</v>
       </c>
       <c r="O45" t="n">
-        <v>2120.205113077797</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P45" t="n">
-        <v>2120.205113077797</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q45" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R45" t="n">
         <v>2120.205113077797</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2647.895796991061</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C46" t="n">
-        <v>2476.802424552778</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D46" t="n">
-        <v>2317.307779875688</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E46" t="n">
-        <v>2156.396964744007</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F46" t="n">
-        <v>2156.396964744007</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G46" t="n">
-        <v>2156.396964744007</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H46" t="n">
-        <v>2156.396964744007</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I46" t="n">
-        <v>2156.396964744007</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J46" t="n">
-        <v>2170.479514149218</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K46" t="n">
-        <v>2325.031841871456</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L46" t="n">
-        <v>2584.928942151516</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M46" t="n">
-        <v>2874.192998592009</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N46" t="n">
-        <v>3155.031780986259</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O46" t="n">
-        <v>3414.592391312734</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P46" t="n">
-        <v>3620.267831562346</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q46" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R46" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S46" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T46" t="n">
-        <v>3685.795861364857</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U46" t="n">
-        <v>3685.795861364857</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V46" t="n">
-        <v>3577.744728627783</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W46" t="n">
-        <v>3298.675064136658</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X46" t="n">
-        <v>3060.331201996341</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y46" t="n">
-        <v>2835.595503385106</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
   </sheetData>
@@ -7981,16 +7981,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>609.5370887172882</v>
+        <v>392.3436386874106</v>
       </c>
       <c r="M2" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O2" t="n">
         <v>743.321953824879</v>
@@ -8057,16 +8057,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M3" t="n">
-        <v>536.2013208684158</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
@@ -8075,13 +8075,13 @@
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
         <v>815.2746908024792</v>
@@ -8233,13 +8233,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q5" t="n">
-        <v>248.2608111356456</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M6" t="n">
-        <v>909.0562844399999</v>
+        <v>643.1706503868313</v>
       </c>
       <c r="N6" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>166.3187983121741</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>392.3436386874106</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
         <v>877.4504173780091</v>
@@ -8470,13 +8470,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>628.1510783507341</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8540,22 +8540,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>935.6763147186165</v>
+        <v>458.6703921507827</v>
       </c>
       <c r="O9" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>222.456857473955</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8701,16 +8701,16 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>853.701196452193</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>743.321953824879</v>
+        <v>537.5843517396877</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8777,16 +8777,16 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>745.8914891781321</v>
+        <v>889.5795680239546</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8929,13 +8929,13 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>288.3297051870488</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>877.4504173780091</v>
+        <v>208.6432198571623</v>
       </c>
       <c r="N14" t="n">
         <v>853.701196452193</v>
@@ -8947,7 +8947,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>87.31214281472352</v>
@@ -9005,22 +9005,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9242,22 +9242,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,13 +9488,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9716,7 +9716,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>55.82578278461539</v>
@@ -9725,22 +9725,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
         <v>55.82578278461539</v>
@@ -9965,16 +9965,16 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>348.1042600436691</v>
       </c>
       <c r="O27" t="n">
-        <v>196.176898678467</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>448.4101882023532</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10433,16 +10433,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>506.3432205021228</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
@@ -10670,10 +10670,10 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>389.300405673794</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>321.4842297650525</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
@@ -10682,10 +10682,10 @@
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10901,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>55.82578278461539</v>
@@ -10910,22 +10910,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>815.2746908024792</v>
+        <v>632.9083759426777</v>
       </c>
       <c r="M41" t="n">
-        <v>877.4504173780091</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
@@ -11077,13 +11077,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>283.7489381988688</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11147,22 +11147,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>458.6703921507827</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>815.2746908024792</v>
+        <v>632.9083759426777</v>
       </c>
       <c r="M44" t="n">
-        <v>877.4504173780091</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
@@ -11314,13 +11314,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>283.7489381988688</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11384,22 +11384,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>458.6703921507827</v>
       </c>
       <c r="O45" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>175.0279895243952</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>186.0156726685969</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.3526305130045</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="14">
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>41.74734910992152</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23551,19 +23551,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>156.8115572743221</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23664,16 +23664,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>134.9699070214184</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="17">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>308.5558614412299</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>102.505994015888</v>
       </c>
     </row>
     <row r="18">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.7251922248153</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>162.939881957349</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>88.57144222862024</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>8.893130557884007</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>36.46078111520819</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.758585467080167</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24448,13 +24448,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>25.66401796922128</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
@@ -24654,22 +24654,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>56.01419322081091</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24736,10 +24736,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V29" t="n">
-        <v>88.57144222862024</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>114.6401175220323</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>211.2629873331147</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>106.2373466094546</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>93.42449318090684</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>36.46078111520819</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>222.4997066824607</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>137.2159168871941</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>93.42449318090684</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>96.14494677818664</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>93.42449318090684</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>113.0533915955076</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>277.4703147212809</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>237.9354137837953</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25794,13 +25794,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>11.29529478912571</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25839,13 +25839,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>124.9456134779937</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>41.74734910992191</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26076,13 +26076,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>164.1762662001703</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>604877.9470541982</v>
+        <v>604877.9470541985</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>695401.6145143894</v>
+        <v>695401.6145143895</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>695401.6145143895</v>
+        <v>695401.6145143894</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>695401.6145143893</v>
+        <v>695401.6145143895</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>695401.6145143893</v>
+        <v>695401.6145143894</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>695401.6145143893</v>
+        <v>695401.6145143895</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>604877.9470541982</v>
+        <v>604877.9470541985</v>
       </c>
     </row>
     <row r="16">
@@ -26316,13 +26316,13 @@
         <v>374629.503974651</v>
       </c>
       <c r="C2" t="n">
-        <v>374629.5039746509</v>
+        <v>374629.503974651</v>
       </c>
       <c r="D2" t="n">
-        <v>374629.503974651</v>
+        <v>374629.5039746511</v>
       </c>
       <c r="E2" t="n">
-        <v>289738.3839776287</v>
+        <v>289738.3839776288</v>
       </c>
       <c r="F2" t="n">
         <v>289738.3839776288</v>
@@ -26334,28 +26334,28 @@
         <v>333095.9676653581</v>
       </c>
       <c r="I2" t="n">
+        <v>333095.9676653582</v>
+      </c>
+      <c r="J2" t="n">
+        <v>333095.9676653582</v>
+      </c>
+      <c r="K2" t="n">
+        <v>333095.9676653582</v>
+      </c>
+      <c r="L2" t="n">
+        <v>333095.9676653582</v>
+      </c>
+      <c r="M2" t="n">
+        <v>333095.9676653582</v>
+      </c>
+      <c r="N2" t="n">
         <v>333095.967665358</v>
       </c>
-      <c r="J2" t="n">
-        <v>333095.967665358</v>
-      </c>
-      <c r="K2" t="n">
-        <v>333095.9676653581</v>
-      </c>
-      <c r="L2" t="n">
-        <v>333095.967665358</v>
-      </c>
-      <c r="M2" t="n">
-        <v>333095.9676653581</v>
-      </c>
-      <c r="N2" t="n">
-        <v>333095.9676653579</v>
-      </c>
       <c r="O2" t="n">
-        <v>289738.3839776286</v>
+        <v>289738.3839776289</v>
       </c>
       <c r="P2" t="n">
-        <v>289738.3839776287</v>
+        <v>289738.3839776288</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>66903.39635363268</v>
+        <v>66903.39635363265</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97692.76759530428</v>
+        <v>97692.76759530431</v>
       </c>
       <c r="C4" t="n">
         <v>97692.76759530428</v>
       </c>
       <c r="D4" t="n">
-        <v>97692.76759530426</v>
+        <v>97692.76759530429</v>
       </c>
       <c r="E4" t="n">
         <v>13426.58272155123</v>
@@ -26508,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>56024.09709274582</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="P5" t="n">
-        <v>56024.09709274582</v>
+        <v>56024.09709274583</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-121513.7023254429</v>
       </c>
       <c r="C6" t="n">
-        <v>187285.0392866008</v>
+        <v>187285.0392866009</v>
       </c>
       <c r="D6" t="n">
         <v>187285.039286601</v>
       </c>
       <c r="E6" t="n">
-        <v>220287.7041633316</v>
+        <v>219918.6123372577</v>
       </c>
       <c r="F6" t="n">
-        <v>220287.7041633317</v>
+        <v>219918.6123372577</v>
       </c>
       <c r="G6" t="n">
-        <v>179861.9873297881</v>
+        <v>179681.406737139</v>
       </c>
       <c r="H6" t="n">
-        <v>246765.3836834208</v>
+        <v>246584.8030907717</v>
       </c>
       <c r="I6" t="n">
-        <v>246765.3836834208</v>
+        <v>246584.8030907718</v>
       </c>
       <c r="J6" t="n">
-        <v>5673.790595684084</v>
+        <v>5493.210003035086</v>
       </c>
       <c r="K6" t="n">
-        <v>246765.3836834208</v>
+        <v>246584.8030907718</v>
       </c>
       <c r="L6" t="n">
-        <v>246765.3836834208</v>
+        <v>246584.8030907719</v>
       </c>
       <c r="M6" t="n">
-        <v>246765.3836834208</v>
+        <v>246584.8030907719</v>
       </c>
       <c r="N6" t="n">
-        <v>246765.3836834207</v>
+        <v>246584.8030907717</v>
       </c>
       <c r="O6" t="n">
-        <v>220287.7041633315</v>
+        <v>219918.6123372578</v>
       </c>
       <c r="P6" t="n">
-        <v>220287.7041633316</v>
+        <v>219918.6123372578</v>
       </c>
     </row>
   </sheetData>
@@ -26828,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>921.4489653412141</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="P4" t="n">
-        <v>921.4489653412141</v>
+        <v>921.4489653412143</v>
       </c>
     </row>
   </sheetData>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>116.2216551456166</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>93.65207542672033</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -27545,19 +27545,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>23.12472639190884</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>194.7158398879882</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>181.3896702890953</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>29.88888766737557</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>38.30877418843828</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,22 +27827,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>41.74734910992152</v>
+        <v>281.9773437724382</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -28064,7 +28064,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>8.893130557884234</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>194.7158398879881</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34701,16 +34701,16 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>514.0516906544433</v>
+        <v>296.8582406245658</v>
       </c>
       <c r="M2" t="n">
         <v>784.1601929209636</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O2" t="n">
         <v>650.1321781990958</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M3" t="n">
-        <v>478.6370371299984</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
         <v>719.7892927396343</v>
@@ -34953,13 +34953,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.2270067364936</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M6" t="n">
-        <v>851.4920007015825</v>
+        <v>585.6063666484139</v>
       </c>
       <c r="N6" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>108.5673193121741</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>296.8582406245658</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
         <v>784.1601929209636</v>
@@ -35190,13 +35190,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>534.50171506985</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>882.4829213248665</v>
+        <v>405.4769987570327</v>
       </c>
       <c r="O9" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>149.1332661406471</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35421,16 +35421,16 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>760.7889056955737</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>650.1321781990958</v>
+        <v>444.3945761139046</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35497,16 +35497,16 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>688.3272054397147</v>
+        <v>832.0152842855372</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>199.1933155138316</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>784.1601929209636</v>
+        <v>115.3529954001169</v>
       </c>
       <c r="N14" t="n">
         <v>760.7889056955737</v>
@@ -35667,7 +35667,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>294.9108666499191</v>
       </c>
       <c r="O27" t="n">
-        <v>138.425419678467</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>448.7789367637054</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
         <v>567.3796893823536</v>
@@ -37390,10 +37390,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>263.919946026635</v>
       </c>
       <c r="N36" t="n">
         <v>882.4829213248665</v>
@@ -37402,10 +37402,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>719.7892927396343</v>
+        <v>537.4229778798328</v>
       </c>
       <c r="M41" t="n">
-        <v>784.1601929209636</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>760.7889056955737</v>
@@ -37797,13 +37797,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>190.0995749179847</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>405.4769987570327</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>719.7892927396343</v>
+        <v>537.4229778798328</v>
       </c>
       <c r="M44" t="n">
-        <v>784.1601929209636</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>760.7889056955737</v>
@@ -38034,13 +38034,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>190.0995749179847</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>405.4769987570327</v>
       </c>
       <c r="O45" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
